--- a/com.DemoWebshop/src/test/resources/TestData/DemoWebShopData.xlsx
+++ b/com.DemoWebshop/src/test/resources/TestData/DemoWebShopData.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91707\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91707\git\AutomationJavaSelenium\com.DemoWebshop\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD9354CB-F609-40B2-9325-00BAF87C605A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF9BBB2-FC2B-40B5-B6DA-C95ADCA74A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{8BC76FD1-738C-4158-90DF-69D8BA216167}"/>
+    <workbookView xWindow="1815" yWindow="1815" windowWidth="15375" windowHeight="7785" activeTab="1" xr2:uid="{8BC76FD1-738C-4158-90DF-69D8BA216167}"/>
   </bookViews>
   <sheets>
     <sheet name="RegisterData" sheetId="1" r:id="rId1"/>
+    <sheet name="ValidData" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>FirstName</t>
   </si>
@@ -58,6 +59,12 @@
   </si>
   <si>
     <t>Rahul@481</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
   </si>
 </sst>
 </file>
@@ -452,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B2564E6-2CFA-4DF9-81B5-6D5780378C90}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,4 +506,43 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4AC3D84-A122-4D16-86F8-DA9B41F2C847}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{5AF07086-5213-4E2B-90F6-AD95DAB5B2AD}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{910C5ECB-9143-42AC-9849-C27E16E610C9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>